--- a/biology/Botanique/Madame_Margottin/Madame_Margottin.xlsx
+++ b/biology/Botanique/Madame_Margottin/Madame_Margottin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Margottin' est un cultivar de rose ancienne obtenu en 1866 par le rosiériste lyonnais Guillot fils. Il est issu de 'Safrano' (Beauregard, 1839)[1]. Il doit son nom à l'épouse du rosiériste Jacques Julien Margottin. Il était fort célèbre dans la seconde moitié du XIXe siècle pour sa couleur jaune pâle, couleur rare pour les roses à l'époque, et faisait l'unanimité pour la fleur à couper.
+'Madame Margottin' est un cultivar de rose ancienne obtenu en 1866 par le rosiériste lyonnais Guillot fils. Il est issu de 'Safrano' (Beauregard, 1839). Il doit son nom à l'épouse du rosiériste Jacques Julien Margottin. Il était fort célèbre dans la seconde moitié du XIXe siècle pour sa couleur jaune pâle, couleur rare pour les roses à l'époque, et faisait l'unanimité pour la fleur à couper.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose thé très parfumée présente des pétales jaune citron au revers plus pâle et au cœur pêche. Les fleurs sont grosses et doubles (17-25 pétales), fleurissant plutôt en solitaire tout au long de la saison[1] sur de longs pédoncules. Le buisson est très vigoureux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose thé très parfumée présente des pétales jaune citron au revers plus pâle et au cœur pêche. Les fleurs sont grosses et doubles (17-25 pétales), fleurissant plutôt en solitaire tout au long de la saison sur de longs pédoncules. Le buisson est très vigoureux.
 Sa zone de rusticité est de 6b à 9b ;  il résiste donc bien aux hivers rigoureux.
 Ce rosier n'est plus commercialisé.
 </t>
